--- a/biology/Médecine/WIBP-CorV/WIBP-CorV.xlsx
+++ b/biology/Médecine/WIBP-CorV/WIBP-CorV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">WIBP-CorV est l'un des deux vaccins contre la COVID-19 inactivés développés par Sinopharm. L'autre étant BBIBP-CorV .
 </t>
@@ -511,10 +523,12 @@
           <t>Développement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En avril 2020, la Chine a approuvé des essais cliniques pour un candidat vaccin contre la COVID-19 développé par le Beijing Institute of Biological Products (BBIBP-CorV) [1] de Sinopharm et le Wuhan Institute of Biological Products (WIBP-CorV)[2]. Les deux vaccins sont des vaccins à virus entiers inactivés chimiquement contre le COVID-19.
-Le 13 août, le Wuhan Institute of Biological Products a publié les résultats intermédiaires de ses études cliniques de phase I (96 adultes) et de phase II (224 adultes). Le rapport a noté que le vaccin avait un faible taux d'effets indésirables et avait démontré une immunogénicité, mais une évaluation à plus long terme de l'innocuité et de l'efficacité nécessiterait des essais de phase III[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En avril 2020, la Chine a approuvé des essais cliniques pour un candidat vaccin contre la COVID-19 développé par le Beijing Institute of Biological Products (BBIBP-CorV)  de Sinopharm et le Wuhan Institute of Biological Products (WIBP-CorV). Les deux vaccins sont des vaccins à virus entiers inactivés chimiquement contre le COVID-19.
+Le 13 août, le Wuhan Institute of Biological Products a publié les résultats intermédiaires de ses études cliniques de phase I (96 adultes) et de phase II (224 adultes). Le rapport a noté que le vaccin avait un faible taux d'effets indésirables et avait démontré une immunogénicité, mais une évaluation à plus long terme de l'innocuité et de l'efficacité nécessiterait des essais de phase III.
 Sinopharm a déclaré que l'efficacité de WIBP-CorV est de 72,51 %, inférieure à celle de 79,34 % de BBIBP-CorV.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Autorisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Chine et les Emirats Arabes Unis ont accordé une autorisation d'urgence au vaccin[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Chine et les Emirats Arabes Unis ont accordé une autorisation d'urgence au vaccin.
 </t>
         </is>
       </c>
